--- a/HoloGTA Banks.xlsx
+++ b/HoloGTA Banks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\Hololive Memes\HoloGTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7561C33-18E3-477D-8D15-E05D42077CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546459C-8F0B-4199-8D9A-38ECEBC876BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{B8294CA5-9602-4BD1-8687-50662968E268}"/>
+    <workbookView xWindow="3270" yWindow="2850" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{B8294CA5-9602-4BD1-8687-50662968E268}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="102">
   <si>
     <t>Team</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>30M chips</t>
+  </si>
+  <si>
+    <t>52M chips</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B8F192-BE0A-4E1C-BEA3-167654AE46C9}">
   <dimension ref="A1:W721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B293" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H305" sqref="H305"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,20 +1213,19 @@
         <v>45552</v>
       </c>
       <c r="D2" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E2">
-        <f>4712+1555</f>
-        <v>6267</v>
-      </c>
-      <c r="F2">
-        <f>4712+1555</f>
-        <v>6267</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3013</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3013</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1252,19 +1254,20 @@
         <v>45552</v>
       </c>
       <c r="D3" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3013</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3013</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E3">
+        <f>4712+1555</f>
+        <v>6267</v>
+      </c>
+      <c r="F3">
+        <f>4712+1555</f>
+        <v>6267</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1293,19 +1296,22 @@
         <v>45553</v>
       </c>
       <c r="D4" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E4">
-        <f>14038+102200</f>
-        <v>116238</v>
+        <f>4991+77476</f>
+        <v>82467</v>
       </c>
       <c r="F4">
-        <f>14038+102200</f>
-        <v>116238</v>
+        <f>4991+77476</f>
+        <v>82467</v>
       </c>
       <c r="G4">
         <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1335,22 +1341,19 @@
         <v>45553</v>
       </c>
       <c r="D5" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E5">
-        <f>4991+77476</f>
-        <v>82467</v>
+        <f>14038+102200</f>
+        <v>116238</v>
       </c>
       <c r="F5">
-        <f>4991+77476</f>
-        <v>82467</v>
+        <f>14038+102200</f>
+        <v>116238</v>
       </c>
       <c r="G5">
         <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1380,21 +1383,22 @@
         <v>45554</v>
       </c>
       <c r="D6" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E6">
-        <v>5900</v>
+        <f>12484+484</f>
+        <v>12968</v>
       </c>
       <c r="F6">
-        <f>22000+E6+100000</f>
-        <v>127900</v>
+        <f>12484+484+100000</f>
+        <v>112968</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1424,22 +1428,21 @@
         <v>45554</v>
       </c>
       <c r="D7" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E7">
-        <f>12484+484</f>
-        <v>12968</v>
+        <v>5900</v>
       </c>
       <c r="F7">
-        <f>12484+484+100000</f>
-        <v>112968</v>
+        <f>22000+E7+100000</f>
+        <v>127900</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1469,15 +1472,15 @@
         <v>45555</v>
       </c>
       <c r="D8" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E8">
-        <v>189000</v>
+        <v>26940</v>
       </c>
       <c r="F8">
-        <f>22000+E8+100000</f>
-        <v>311000</v>
+        <f>26940+1600+100000</f>
+        <v>128540</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1510,15 +1513,15 @@
         <v>45555</v>
       </c>
       <c r="D9" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E9">
-        <v>26940</v>
+        <v>189000</v>
       </c>
       <c r="F9">
-        <f>26940+1600+100000</f>
-        <v>128540</v>
+        <f>22000+E9+100000</f>
+        <v>311000</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1551,16 +1554,16 @@
         <v>45556</v>
       </c>
       <c r="D10" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E10">
-        <f>413000+65000</f>
-        <v>478000</v>
+        <f>26414+188800</f>
+        <v>215214</v>
       </c>
       <c r="F10">
         <f>22000+E10+100000</f>
-        <v>600000</v>
+        <v>337214</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1593,16 +1596,16 @@
         <v>45556</v>
       </c>
       <c r="D11" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E11">
-        <f>26414+188800</f>
-        <v>215214</v>
+        <f>413000+65000</f>
+        <v>478000</v>
       </c>
       <c r="F11">
         <f>22000+E11+100000</f>
-        <v>337214</v>
+        <v>600000</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1635,16 +1638,16 @@
         <v>45557</v>
       </c>
       <c r="D12" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E12">
-        <f>157300+109500</f>
-        <v>266800</v>
+        <f>153800+42916</f>
+        <v>196716</v>
       </c>
       <c r="F12">
         <f>22000+E12+100000</f>
-        <v>388800</v>
+        <v>318716</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1677,16 +1680,16 @@
         <v>45557</v>
       </c>
       <c r="D13" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E13">
-        <f>153800+42916</f>
-        <v>196716</v>
+        <f>157300+109500</f>
+        <v>266800</v>
       </c>
       <c r="F13">
         <f>22000+E13+100000</f>
-        <v>318716</v>
+        <v>388800</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1719,21 +1722,19 @@
         <v>45558</v>
       </c>
       <c r="D14" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E14">
-        <v>250500</v>
+        <f>82032+118200</f>
+        <v>200232</v>
       </c>
       <c r="F14">
-        <f>22000+E14+100000+15000</f>
-        <v>387500</v>
+        <f>22000+E14+100000</f>
+        <v>322232</v>
       </c>
       <c r="G14">
         <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1763,19 +1764,21 @@
         <v>45558</v>
       </c>
       <c r="D15" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E15">
-        <f>82032+118200</f>
-        <v>200232</v>
+        <v>250500</v>
       </c>
       <c r="F15">
-        <f>22000+E15+100000</f>
-        <v>322232</v>
+        <f>22000+E15+100000+15000</f>
+        <v>387500</v>
       </c>
       <c r="G15">
         <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2644,7 +2647,7 @@
         <v>30200</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F59" si="0">E54+5500</f>
+        <f>E54+5500</f>
         <v>35700</v>
       </c>
       <c r="G54">
@@ -2670,7 +2673,7 @@
         <v>44200</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f>E55+5500</f>
         <v>49700</v>
       </c>
       <c r="G55">
@@ -2697,7 +2700,7 @@
         <v>71950</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f>E56+5500</f>
         <v>77450</v>
       </c>
       <c r="G56">
@@ -2724,7 +2727,7 @@
         <v>93000</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>E57+5500</f>
         <v>98500</v>
       </c>
       <c r="G57">
@@ -2750,7 +2753,7 @@
         <v>126100</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>E58+5500</f>
         <v>131600</v>
       </c>
       <c r="G58">
@@ -2776,7 +2779,7 @@
         <v>135000</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>E59+5500</f>
         <v>140500</v>
       </c>
       <c r="G59">
@@ -2854,17 +2857,17 @@
         <v>45552</v>
       </c>
       <c r="D62" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E62">
-        <v>25250</v>
+        <v>3000</v>
       </c>
       <c r="F62">
-        <v>25250</v>
+        <v>3000</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2879,17 +2882,17 @@
         <v>45552</v>
       </c>
       <c r="D63" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E63">
-        <v>3000</v>
+        <v>25250</v>
       </c>
       <c r="F63">
-        <v>3000</v>
+        <v>25250</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2904,19 +2907,22 @@
         <v>45553</v>
       </c>
       <c r="D64" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E64">
-        <f>20842+242</f>
-        <v>21084</v>
+        <f>3795+8236</f>
+        <v>12031</v>
       </c>
       <c r="F64">
-        <f>20842+242</f>
-        <v>21084</v>
+        <f>3795+8236</f>
+        <v>12031</v>
       </c>
       <c r="G64">
         <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2931,22 +2937,19 @@
         <v>45553</v>
       </c>
       <c r="D65" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E65">
-        <f>3795+8236</f>
-        <v>12031</v>
+        <f>20842+242</f>
+        <v>21084</v>
       </c>
       <c r="F65">
-        <f>3795+8236</f>
-        <v>12031</v>
+        <f>20842+242</f>
+        <v>21084</v>
       </c>
       <c r="G65">
         <v>3</v>
-      </c>
-      <c r="H65" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2961,19 +2964,22 @@
         <v>45554</v>
       </c>
       <c r="D66" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E66">
-        <f>18001+3299</f>
-        <v>21300</v>
+        <f>5253+4400</f>
+        <v>9653</v>
       </c>
       <c r="F66">
-        <f>18001+3299</f>
-        <v>21300</v>
+        <f>5253+4400</f>
+        <v>9653</v>
       </c>
       <c r="G66">
         <v>3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2988,22 +2994,19 @@
         <v>45554</v>
       </c>
       <c r="D67" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E67">
-        <f>5253+4400</f>
-        <v>9653</v>
+        <f>18001+3299</f>
+        <v>21300</v>
       </c>
       <c r="F67">
-        <f>5253+4400</f>
-        <v>9653</v>
+        <f>18001+3299</f>
+        <v>21300</v>
       </c>
       <c r="G67">
         <v>3</v>
-      </c>
-      <c r="H67" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3018,16 +3021,16 @@
         <v>45555</v>
       </c>
       <c r="D68" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E68">
-        <f>10550+24900</f>
-        <v>35450</v>
+        <f>2653+24119</f>
+        <v>26772</v>
       </c>
       <c r="F68">
-        <f>10550+24900</f>
-        <v>35450</v>
+        <f>2653+24119</f>
+        <v>26772</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -3045,16 +3048,16 @@
         <v>45555</v>
       </c>
       <c r="D69" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E69">
-        <f>2653+24119</f>
-        <v>26772</v>
+        <f>10550+24900</f>
+        <v>35450</v>
       </c>
       <c r="F69">
-        <f>2653+24119</f>
-        <v>26772</v>
+        <f>10550+24900</f>
+        <v>35450</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -3072,22 +3075,17 @@
         <v>45556</v>
       </c>
       <c r="D70" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E70">
-        <f>3416+74452</f>
-        <v>77868</v>
+        <v>50000</v>
       </c>
       <c r="F70">
-        <f>E70+70000</f>
-        <v>147868</v>
+        <v>50000</v>
       </c>
       <c r="G70">
         <v>3</v>
-      </c>
-      <c r="H70" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3102,17 +3100,22 @@
         <v>45556</v>
       </c>
       <c r="D71" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E71">
-        <v>50000</v>
+        <f>3416+74452</f>
+        <v>77868</v>
       </c>
       <c r="F71">
-        <v>50000</v>
+        <f>E71+70000</f>
+        <v>147868</v>
       </c>
       <c r="G71">
         <v>3</v>
+      </c>
+      <c r="H71" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3127,16 +3130,16 @@
         <v>45557</v>
       </c>
       <c r="D72" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E72">
-        <f>22533+75311</f>
-        <v>97844</v>
+        <f>3416+74452</f>
+        <v>77868</v>
       </c>
       <c r="F72">
         <f>E72+70000</f>
-        <v>167844</v>
+        <v>147868</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -3154,16 +3157,16 @@
         <v>45557</v>
       </c>
       <c r="D73" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E73">
-        <f>3416+74452</f>
-        <v>77868</v>
+        <f>22533+75311</f>
+        <v>97844</v>
       </c>
       <c r="F73">
         <f>E73+70000</f>
-        <v>147868</v>
+        <v>167844</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -3181,22 +3184,22 @@
         <v>45558</v>
       </c>
       <c r="D74" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E74">
-        <f>4678+3900</f>
-        <v>8578</v>
+        <f>2450+16781</f>
+        <v>19231</v>
       </c>
       <c r="F74">
-        <f>E74+70000+90000+15000</f>
-        <v>183578</v>
+        <f>E74+70000+90000</f>
+        <v>179231</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3211,22 +3214,22 @@
         <v>45558</v>
       </c>
       <c r="D75" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E75">
-        <f>2450+16781</f>
-        <v>19231</v>
+        <f>4678+3900</f>
+        <v>8578</v>
       </c>
       <c r="F75">
-        <f>E75+70000+90000</f>
-        <v>179231</v>
+        <f>E75+70000+90000+15000</f>
+        <v>183578</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3364,17 +3367,17 @@
         <v>45555</v>
       </c>
       <c r="D83" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E83">
-        <v>7200</v>
+        <v>3000</v>
       </c>
       <c r="F83">
-        <v>7200</v>
+        <v>3000</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3389,17 +3392,17 @@
         <v>45555</v>
       </c>
       <c r="D84" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E84">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="F84">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3414,19 +3417,20 @@
         <v>45556</v>
       </c>
       <c r="D85" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E85">
-        <f>7286+47717</f>
-        <v>55003</v>
+        <v>39134</v>
       </c>
       <c r="F85">
-        <f>7286+47717</f>
-        <v>55003</v>
+        <v>39134</v>
       </c>
       <c r="G85">
         <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3441,20 +3445,19 @@
         <v>45556</v>
       </c>
       <c r="D86" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E86">
-        <v>39134</v>
+        <f>7286+47717</f>
+        <v>55003</v>
       </c>
       <c r="F86">
-        <v>39134</v>
+        <f>7286+47717</f>
+        <v>55003</v>
       </c>
       <c r="G86">
         <v>3</v>
-      </c>
-      <c r="H86" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3515,21 +3518,8 @@
         <v>45558</v>
       </c>
       <c r="D89" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E89">
-        <v>69000</v>
-      </c>
-      <c r="F89">
-        <f>E89+104000+15000</f>
-        <v>188000</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89" t="s">
-        <v>91</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3544,8 +3534,21 @@
         <v>45558</v>
       </c>
       <c r="D90" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E90">
+        <v>69000</v>
+      </c>
+      <c r="F90">
+        <f>E90+104000+15000</f>
+        <v>188000</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4609,14 +4612,14 @@
         <v>45553</v>
       </c>
       <c r="D154" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E154">
-        <v>3650</v>
+        <v>1720</v>
       </c>
       <c r="F154">
-        <v>3650</v>
+        <v>1720</v>
       </c>
       <c r="G154">
         <v>1.5</v>
@@ -4634,14 +4637,14 @@
         <v>45553</v>
       </c>
       <c r="D155" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E155">
-        <v>1720</v>
+        <v>3650</v>
       </c>
       <c r="F155">
-        <v>1720</v>
+        <v>3650</v>
       </c>
       <c r="G155">
         <v>1.5</v>
@@ -4659,14 +4662,14 @@
         <v>45554</v>
       </c>
       <c r="D156" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E156">
-        <v>6500</v>
+        <v>5708</v>
       </c>
       <c r="F156">
-        <v>6500</v>
+        <v>5708</v>
       </c>
       <c r="G156">
         <v>1.5</v>
@@ -4684,14 +4687,14 @@
         <v>45554</v>
       </c>
       <c r="D157" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E157">
-        <v>5708</v>
+        <v>6500</v>
       </c>
       <c r="F157">
-        <v>5708</v>
+        <v>6500</v>
       </c>
       <c r="G157">
         <v>1.5</v>
@@ -4814,17 +4817,8 @@
         <v>45558</v>
       </c>
       <c r="D164" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E164">
-        <v>11770</v>
-      </c>
-      <c r="F164">
-        <v>11770</v>
-      </c>
-      <c r="G164">
-        <v>1.5</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4839,8 +4833,17 @@
         <v>45558</v>
       </c>
       <c r="D165" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E165">
+        <v>11770</v>
+      </c>
+      <c r="F165">
+        <v>11770</v>
+      </c>
+      <c r="G165">
+        <v>1.5</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4882,20 +4885,19 @@
         <v>45552</v>
       </c>
       <c r="D167" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E167">
-        <f>280+5998</f>
-        <v>6278</v>
-      </c>
-      <c r="F167">
-        <f>280+5998</f>
-        <v>6278</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E167" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3000</v>
       </c>
       <c r="G167" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -4909,19 +4911,20 @@
         <v>45552</v>
       </c>
       <c r="D168" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E168" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F168" s="1">
-        <v>3000</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E168">
+        <f>280+5998</f>
+        <v>6278</v>
+      </c>
+      <c r="F168">
+        <f>280+5998</f>
+        <v>6278</v>
       </c>
       <c r="G168" s="1">
-        <v>0</v>
-      </c>
-      <c r="H168" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -4935,16 +4938,16 @@
         <v>45553</v>
       </c>
       <c r="D169" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E169">
-        <f>1274+14620</f>
-        <v>15894</v>
+        <f>1374+9998</f>
+        <v>11372</v>
       </c>
       <c r="F169">
-        <f>1274+14620</f>
-        <v>15894</v>
+        <f>1374+9998</f>
+        <v>11372</v>
       </c>
       <c r="G169" s="1">
         <v>3</v>
@@ -4962,16 +4965,16 @@
         <v>45553</v>
       </c>
       <c r="D170" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E170">
-        <f>1374+9998</f>
-        <v>11372</v>
+        <f>1274+14620</f>
+        <v>15894</v>
       </c>
       <c r="F170">
-        <f>1374+9998</f>
-        <v>11372</v>
+        <f>1274+14620</f>
+        <v>15894</v>
       </c>
       <c r="G170" s="1">
         <v>3</v>
@@ -4989,22 +4992,19 @@
         <v>45554</v>
       </c>
       <c r="D171" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E171">
         <f>565+16600</f>
         <v>17165</v>
       </c>
       <c r="F171">
-        <f>565+16600+12000</f>
-        <v>29165</v>
+        <f>565+16600</f>
+        <v>17165</v>
       </c>
       <c r="G171" s="1">
         <v>3</v>
-      </c>
-      <c r="H171" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5019,19 +5019,22 @@
         <v>45554</v>
       </c>
       <c r="D172" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E172">
         <f>565+16600</f>
         <v>17165</v>
       </c>
       <c r="F172">
-        <f>565+16600</f>
-        <v>17165</v>
+        <f>565+16600+12000</f>
+        <v>29165</v>
       </c>
       <c r="G172" s="1">
         <v>3</v>
+      </c>
+      <c r="H172" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5046,16 +5049,16 @@
         <v>45555</v>
       </c>
       <c r="D173" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E173">
-        <f>2497+27264</f>
-        <v>29761</v>
+        <f>901+18300</f>
+        <v>19201</v>
       </c>
       <c r="F173">
-        <f>2497+27264+12000</f>
-        <v>41761</v>
+        <f>E173+12000</f>
+        <v>31201</v>
       </c>
       <c r="G173" s="1">
         <v>3</v>
@@ -5073,16 +5076,16 @@
         <v>45555</v>
       </c>
       <c r="D174" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E174">
-        <f>901+18300</f>
-        <v>19201</v>
+        <f>2497+27264</f>
+        <v>29761</v>
       </c>
       <c r="F174">
-        <f>E174+12000</f>
-        <v>31201</v>
+        <f>2497+27264+12000</f>
+        <v>41761</v>
       </c>
       <c r="G174" s="1">
         <v>3</v>
@@ -5107,7 +5110,7 @@
         <v>58392</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175:F181" si="1">12000+E175</f>
+        <f>12000+E175</f>
         <v>70392</v>
       </c>
       <c r="G175" s="1">
@@ -5134,7 +5137,7 @@
         <v>54294</v>
       </c>
       <c r="F176">
-        <f t="shared" si="1"/>
+        <f>12000+E176</f>
         <v>66294</v>
       </c>
       <c r="G176" s="1">
@@ -5153,17 +5156,17 @@
         <v>45557</v>
       </c>
       <c r="D177" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E177">
-        <v>60946</v>
+        <v>57700</v>
       </c>
       <c r="F177">
-        <f t="shared" si="1"/>
-        <v>72946</v>
-      </c>
-      <c r="G177">
+        <f>12000+E177</f>
+        <v>69700</v>
+      </c>
+      <c r="G177" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5179,17 +5182,17 @@
         <v>45557</v>
       </c>
       <c r="D178" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E178">
-        <v>57700</v>
+        <v>60946</v>
       </c>
       <c r="F178">
-        <f t="shared" si="1"/>
-        <v>69700</v>
-      </c>
-      <c r="G178" s="1">
+        <f>12000+E178</f>
+        <v>72946</v>
+      </c>
+      <c r="G178">
         <v>3</v>
       </c>
     </row>
@@ -5213,7 +5216,7 @@
         <v>10980</v>
       </c>
       <c r="F179">
-        <f t="shared" si="1"/>
+        <f>12000+E179</f>
         <v>22980</v>
       </c>
       <c r="G179" s="1">
@@ -5243,7 +5246,7 @@
         <v>10221</v>
       </c>
       <c r="F180">
-        <f t="shared" si="1"/>
+        <f>12000+E180</f>
         <v>22221</v>
       </c>
       <c r="G180" s="1">
@@ -5269,7 +5272,7 @@
         <v>11335</v>
       </c>
       <c r="F181">
-        <f t="shared" si="1"/>
+        <f>12000+E181</f>
         <v>23335</v>
       </c>
       <c r="G181" s="1">
@@ -5339,16 +5342,16 @@
         <v>45553</v>
       </c>
       <c r="D184" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E184">
-        <f>1840+5999</f>
-        <v>7839</v>
+        <f>2950+2312</f>
+        <v>5262</v>
       </c>
       <c r="F184">
-        <f>1840+5999</f>
-        <v>7839</v>
+        <f>2950+2312</f>
+        <v>5262</v>
       </c>
       <c r="G184" s="1">
         <v>3</v>
@@ -5366,16 +5369,16 @@
         <v>45553</v>
       </c>
       <c r="D185" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E185">
-        <f>2950+2312</f>
-        <v>5262</v>
+        <f>1840+5999</f>
+        <v>7839</v>
       </c>
       <c r="F185">
-        <f>2950+2312</f>
-        <v>5262</v>
+        <f>1840+5999</f>
+        <v>7839</v>
       </c>
       <c r="G185" s="1">
         <v>3</v>
@@ -5393,16 +5396,14 @@
         <v>45554</v>
       </c>
       <c r="D186" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E186">
-        <f>4159+17898</f>
-        <v>22057</v>
+        <v>12800</v>
       </c>
       <c r="F186">
-        <f>4159+17898</f>
-        <v>22057</v>
+        <v>12800</v>
       </c>
       <c r="G186" s="1">
         <v>3</v>
@@ -5420,14 +5421,16 @@
         <v>45554</v>
       </c>
       <c r="D187" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E187">
-        <v>12800</v>
+        <f>4159+17898</f>
+        <v>22057</v>
       </c>
       <c r="F187">
-        <v>12800</v>
+        <f>4159+17898</f>
+        <v>22057</v>
       </c>
       <c r="G187" s="1">
         <v>3</v>
@@ -5445,19 +5448,17 @@
         <v>45555</v>
       </c>
       <c r="D188" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E188">
-        <f>4459+28893</f>
-        <v>33352</v>
+        <v>30250</v>
       </c>
       <c r="F188">
-        <f>4459+28893</f>
-        <v>33352</v>
+        <v>30250</v>
       </c>
       <c r="G188" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5472,17 +5473,19 @@
         <v>45555</v>
       </c>
       <c r="D189" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E189">
-        <v>30250</v>
+        <f>4459+28893</f>
+        <v>33352</v>
       </c>
       <c r="F189">
-        <v>30250</v>
+        <f>4459+28893</f>
+        <v>33352</v>
       </c>
       <c r="G189" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5497,19 +5500,17 @@
         <v>45556</v>
       </c>
       <c r="D190" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E190">
-        <f>42373+6983</f>
-        <v>49356</v>
+        <v>37500</v>
       </c>
       <c r="F190">
-        <f>42373+6983</f>
-        <v>49356</v>
+        <v>37500</v>
       </c>
       <c r="G190" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5524,17 +5525,19 @@
         <v>45556</v>
       </c>
       <c r="D191" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E191">
-        <v>37500</v>
+        <f>42373+6983</f>
+        <v>49356</v>
       </c>
       <c r="F191">
-        <v>37500</v>
+        <f>42373+6983</f>
+        <v>49356</v>
       </c>
       <c r="G191" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5549,14 +5552,16 @@
         <v>45557</v>
       </c>
       <c r="D192" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E192">
-        <v>65000</v>
+        <f>57500</f>
+        <v>57500</v>
       </c>
       <c r="F192">
-        <v>65000</v>
+        <f>57500</f>
+        <v>57500</v>
       </c>
       <c r="G192" s="1">
         <v>3</v>
@@ -5574,16 +5579,14 @@
         <v>45557</v>
       </c>
       <c r="D193" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E193">
-        <f>57500</f>
-        <v>57500</v>
+        <v>65000</v>
       </c>
       <c r="F193">
-        <f>57500</f>
-        <v>57500</v>
+        <v>65000</v>
       </c>
       <c r="G193" s="1">
         <v>3</v>
@@ -6174,20 +6177,19 @@
         <v>45552</v>
       </c>
       <c r="D227" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E227">
-        <f>1651+3568</f>
-        <v>5219</v>
-      </c>
-      <c r="F227">
-        <f>1651+3568</f>
-        <v>5219</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E227" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F227" s="1">
+        <v>3000</v>
       </c>
       <c r="G227" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" s="1"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -6201,19 +6203,20 @@
         <v>45552</v>
       </c>
       <c r="D228" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E228" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F228" s="1">
-        <v>3000</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E228">
+        <f>1651+3568</f>
+        <v>5219</v>
+      </c>
+      <c r="F228">
+        <f>1651+3568</f>
+        <v>5219</v>
       </c>
       <c r="G228" s="1">
-        <v>0</v>
-      </c>
-      <c r="H228" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="229" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -6227,16 +6230,16 @@
         <v>45553</v>
       </c>
       <c r="D229" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E229">
-        <f>7534+5298</f>
-        <v>12832</v>
+        <f>5859+4578</f>
+        <v>10437</v>
       </c>
       <c r="F229">
-        <f>7534+5298</f>
-        <v>12832</v>
+        <f>5859+4578</f>
+        <v>10437</v>
       </c>
       <c r="G229" s="1">
         <v>3</v>
@@ -6254,16 +6257,16 @@
         <v>45553</v>
       </c>
       <c r="D230" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E230">
-        <f>5859+4578</f>
-        <v>10437</v>
+        <f>7534+5298</f>
+        <v>12832</v>
       </c>
       <c r="F230">
-        <f>5859+4578</f>
-        <v>10437</v>
+        <f>7534+5298</f>
+        <v>12832</v>
       </c>
       <c r="G230" s="1">
         <v>3</v>
@@ -6281,16 +6284,16 @@
         <v>45554</v>
       </c>
       <c r="D231" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E231">
-        <f>9592+11242</f>
-        <v>20834</v>
+        <f>8164+9688</f>
+        <v>17852</v>
       </c>
       <c r="F231">
-        <f>9592+11242</f>
-        <v>20834</v>
+        <f>8164+9688</f>
+        <v>17852</v>
       </c>
       <c r="G231" s="1">
         <v>3</v>
@@ -6308,16 +6311,16 @@
         <v>45554</v>
       </c>
       <c r="D232" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E232">
-        <f>8164+9688</f>
-        <v>17852</v>
+        <f>9592+11242</f>
+        <v>20834</v>
       </c>
       <c r="F232">
-        <f>8164+9688</f>
-        <v>17852</v>
+        <f>9592+11242</f>
+        <v>20834</v>
       </c>
       <c r="G232" s="1">
         <v>3</v>
@@ -6335,14 +6338,16 @@
         <v>45555</v>
       </c>
       <c r="D233" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E233">
-        <v>30250</v>
+        <f>10914+12942+400</f>
+        <v>24256</v>
       </c>
       <c r="F233">
-        <v>30250</v>
+        <f>10914+12942+400</f>
+        <v>24256</v>
       </c>
       <c r="G233" s="1">
         <v>3</v>
@@ -6360,16 +6365,14 @@
         <v>45555</v>
       </c>
       <c r="D234" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E234">
-        <f>10914+12942+400</f>
-        <v>24256</v>
+        <v>30250</v>
       </c>
       <c r="F234">
-        <f>10914+12942+400</f>
-        <v>24256</v>
+        <v>30250</v>
       </c>
       <c r="G234" s="1">
         <v>3</v>
@@ -6428,19 +6431,8 @@
         <v>45557</v>
       </c>
       <c r="D237" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E237">
-        <f>15948+23933</f>
-        <v>39881</v>
-      </c>
-      <c r="F237">
-        <f>15948+23933</f>
-        <v>39881</v>
-      </c>
-      <c r="G237" s="1">
-        <v>3</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6455,8 +6447,19 @@
         <v>45557</v>
       </c>
       <c r="D238" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E238">
+        <f>15948+23933</f>
+        <v>39881</v>
+      </c>
+      <c r="F238">
+        <f>15948+23933</f>
+        <v>39881</v>
+      </c>
+      <c r="G238" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6471,14 +6474,16 @@
         <v>45558</v>
       </c>
       <c r="D239" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E239">
-        <v>60000</v>
+        <f>19600+35700</f>
+        <v>55300</v>
       </c>
       <c r="F239">
-        <v>60000</v>
+        <f>19600+35700</f>
+        <v>55300</v>
       </c>
       <c r="G239">
         <v>3</v>
@@ -6496,16 +6501,14 @@
         <v>45558</v>
       </c>
       <c r="D240" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E240">
-        <f>19600+35700</f>
-        <v>55300</v>
+        <v>60000</v>
       </c>
       <c r="F240">
-        <f>19600+35700</f>
-        <v>55300</v>
+        <v>60000</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -6796,20 +6799,19 @@
         <v>45552</v>
       </c>
       <c r="D257" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E257">
-        <f>2736+530</f>
-        <v>3266</v>
-      </c>
-      <c r="F257">
-        <f>2736+530</f>
-        <v>3266</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E257" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F257" s="1">
+        <v>3000</v>
       </c>
       <c r="G257" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -6823,19 +6825,20 @@
         <v>45552</v>
       </c>
       <c r="D258" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E258" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F258" s="1">
-        <v>3000</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E258">
+        <f>2736+530</f>
+        <v>3266</v>
+      </c>
+      <c r="F258">
+        <f>2736+530</f>
+        <v>3266</v>
       </c>
       <c r="G258" s="1">
-        <v>0</v>
-      </c>
-      <c r="H258" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -6849,16 +6852,16 @@
         <v>45553</v>
       </c>
       <c r="D259" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E259">
-        <f>2582+2305</f>
-        <v>4887</v>
+        <f>2726+1125</f>
+        <v>3851</v>
       </c>
       <c r="F259">
-        <f>2582+2305</f>
-        <v>4887</v>
+        <f>2726+1125</f>
+        <v>3851</v>
       </c>
       <c r="G259" s="1">
         <v>3</v>
@@ -6876,16 +6879,16 @@
         <v>45553</v>
       </c>
       <c r="D260" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E260">
-        <f>2726+1125</f>
-        <v>3851</v>
+        <f>2582+2305</f>
+        <v>4887</v>
       </c>
       <c r="F260">
-        <f>2726+1125</f>
-        <v>3851</v>
+        <f>2582+2305</f>
+        <v>4887</v>
       </c>
       <c r="G260" s="1">
         <v>3</v>
@@ -6903,16 +6906,16 @@
         <v>45554</v>
       </c>
       <c r="D261" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E261">
-        <f>2374+9415</f>
-        <v>11789</v>
+        <f>2405+5705</f>
+        <v>8110</v>
       </c>
       <c r="F261">
-        <f>2374+9415</f>
-        <v>11789</v>
+        <f>2405+5705</f>
+        <v>8110</v>
       </c>
       <c r="G261" s="1">
         <v>3</v>
@@ -6930,16 +6933,16 @@
         <v>45554</v>
       </c>
       <c r="D262" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E262">
-        <f>2405+5705</f>
-        <v>8110</v>
+        <f>2374+9415</f>
+        <v>11789</v>
       </c>
       <c r="F262">
-        <f>2405+5705</f>
-        <v>8110</v>
+        <f>2374+9415</f>
+        <v>11789</v>
       </c>
       <c r="G262" s="1">
         <v>3</v>
@@ -6957,16 +6960,16 @@
         <v>45555</v>
       </c>
       <c r="D263" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E263">
-        <f>10825+1267</f>
-        <v>12092</v>
+        <f>2283+13265-6800</f>
+        <v>8748</v>
       </c>
       <c r="F263">
-        <f t="shared" ref="F263:F269" si="2">E263</f>
-        <v>12092</v>
+        <f>E263</f>
+        <v>8748</v>
       </c>
       <c r="G263" s="1">
         <v>3</v>
@@ -6984,16 +6987,16 @@
         <v>45555</v>
       </c>
       <c r="D264" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E264">
-        <f>2283+13265-6800</f>
-        <v>8748</v>
+        <f>10825+1267</f>
+        <v>12092</v>
       </c>
       <c r="F264">
-        <f t="shared" si="2"/>
-        <v>8748</v>
+        <f>E264</f>
+        <v>12092</v>
       </c>
       <c r="G264" s="1">
         <v>3</v>
@@ -7019,7 +7022,7 @@
         <v>10500</v>
       </c>
       <c r="F265">
-        <f t="shared" si="2"/>
+        <f>E265</f>
         <v>10500</v>
       </c>
       <c r="G265" s="1">
@@ -7046,7 +7049,7 @@
         <v>10500</v>
       </c>
       <c r="F266">
-        <f t="shared" si="2"/>
+        <f>E266</f>
         <v>10500</v>
       </c>
       <c r="G266" s="1">
@@ -7065,15 +7068,15 @@
         <v>45557</v>
       </c>
       <c r="D267" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E267">
-        <v>25900</v>
+        <v>20800</v>
       </c>
       <c r="F267">
-        <f t="shared" si="2"/>
-        <v>25900</v>
+        <f>E267</f>
+        <v>20800</v>
       </c>
       <c r="G267" s="1">
         <v>3</v>
@@ -7091,15 +7094,15 @@
         <v>45557</v>
       </c>
       <c r="D268" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E268">
-        <v>20800</v>
+        <v>25900</v>
       </c>
       <c r="F268">
-        <f t="shared" si="2"/>
-        <v>20800</v>
+        <f>E268</f>
+        <v>25900</v>
       </c>
       <c r="G268" s="1">
         <v>3</v>
@@ -7124,7 +7127,7 @@
         <v>37000</v>
       </c>
       <c r="F269">
-        <f t="shared" si="2"/>
+        <f>E269</f>
         <v>37000</v>
       </c>
       <c r="G269" s="1">
@@ -7443,20 +7446,19 @@
         <v>45552</v>
       </c>
       <c r="D287" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E287">
-        <f>2149+908</f>
-        <v>3057</v>
-      </c>
-      <c r="F287">
-        <f>2149+908</f>
-        <v>3057</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E287" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F287" s="1">
+        <v>3000</v>
       </c>
       <c r="G287" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" s="1"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -7470,19 +7472,20 @@
         <v>45552</v>
       </c>
       <c r="D288" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E288" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F288" s="1">
-        <v>3000</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E288">
+        <f>2149+908</f>
+        <v>3057</v>
+      </c>
+      <c r="F288">
+        <f>2149+908</f>
+        <v>3057</v>
       </c>
       <c r="G288" s="1">
-        <v>0</v>
-      </c>
-      <c r="H288" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="289" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
@@ -7643,17 +7646,8 @@
         <v>45556</v>
       </c>
       <c r="D295" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E295">
-        <v>6000</v>
-      </c>
-      <c r="F295">
-        <v>6000</v>
-      </c>
-      <c r="G295" s="1">
-        <v>3</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7668,8 +7662,17 @@
         <v>45556</v>
       </c>
       <c r="D296" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E296">
+        <v>6000</v>
+      </c>
+      <c r="F296">
+        <v>6000</v>
+      </c>
+      <c r="G296" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7684,14 +7687,14 @@
         <v>45557</v>
       </c>
       <c r="D297" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E297">
-        <v>20900</v>
+        <v>13900</v>
       </c>
       <c r="F297">
-        <v>20900</v>
+        <v>13900</v>
       </c>
       <c r="G297" s="1">
         <v>3</v>
@@ -7709,14 +7712,14 @@
         <v>45557</v>
       </c>
       <c r="D298" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E298">
-        <v>13900</v>
+        <v>20900</v>
       </c>
       <c r="F298">
-        <v>13900</v>
+        <v>20900</v>
       </c>
       <c r="G298" s="1">
         <v>3</v>
@@ -8058,17 +8061,17 @@
         <v>45552</v>
       </c>
       <c r="D317" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E317">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="F317">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="G317">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8083,17 +8086,17 @@
         <v>45552</v>
       </c>
       <c r="D318" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E318">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="F318">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -8108,16 +8111,16 @@
         <v>45553</v>
       </c>
       <c r="D319" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E319">
-        <f>1500+6200</f>
-        <v>7700</v>
+        <f>5100</f>
+        <v>5100</v>
       </c>
       <c r="F319">
-        <f>1500+6200</f>
-        <v>7700</v>
+        <f>5100</f>
+        <v>5100</v>
       </c>
       <c r="G319">
         <v>3</v>
@@ -8135,16 +8138,16 @@
         <v>45553</v>
       </c>
       <c r="D320" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E320">
-        <f>5100</f>
-        <v>5100</v>
+        <f>1500+6200</f>
+        <v>7700</v>
       </c>
       <c r="F320">
-        <f>5100</f>
-        <v>5100</v>
+        <f>1500+6200</f>
+        <v>7700</v>
       </c>
       <c r="G320">
         <v>3</v>
@@ -8162,16 +8165,16 @@
         <v>45554</v>
       </c>
       <c r="D321" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E321">
-        <f>3252+11247</f>
-        <v>14499</v>
+        <f>3280+8340</f>
+        <v>11620</v>
       </c>
       <c r="F321">
-        <f>3252+11247</f>
-        <v>14499</v>
+        <f>3280+8340</f>
+        <v>11620</v>
       </c>
       <c r="G321">
         <v>3</v>
@@ -8189,16 +8192,16 @@
         <v>45554</v>
       </c>
       <c r="D322" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E322">
-        <f>3280+8340</f>
-        <v>11620</v>
+        <f>3252+11247</f>
+        <v>14499</v>
       </c>
       <c r="F322">
-        <f>3280+8340</f>
-        <v>11620</v>
+        <f>3252+11247</f>
+        <v>14499</v>
       </c>
       <c r="G322">
         <v>3</v>
@@ -8216,16 +8219,16 @@
         <v>45555</v>
       </c>
       <c r="D323" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E323">
-        <f>3368+7687</f>
-        <v>11055</v>
+        <f>8500</f>
+        <v>8500</v>
       </c>
       <c r="F323">
-        <f>3368+7687</f>
-        <v>11055</v>
+        <f>8500</f>
+        <v>8500</v>
       </c>
       <c r="G323">
         <v>3</v>
@@ -8243,16 +8246,16 @@
         <v>45555</v>
       </c>
       <c r="D324" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E324">
-        <f>8500</f>
-        <v>8500</v>
+        <f>3368+7687</f>
+        <v>11055</v>
       </c>
       <c r="F324">
-        <f>8500</f>
-        <v>8500</v>
+        <f>3368+7687</f>
+        <v>11055</v>
       </c>
       <c r="G324">
         <v>3</v>
@@ -8313,22 +8316,8 @@
         <v>45557</v>
       </c>
       <c r="D327" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E327">
-        <f>8947+33457</f>
-        <v>42404</v>
-      </c>
-      <c r="F327">
-        <f>8947+33457</f>
-        <v>42404</v>
-      </c>
-      <c r="G327">
-        <v>1.5</v>
-      </c>
-      <c r="H327" t="s">
-        <v>75</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8343,8 +8332,22 @@
         <v>45557</v>
       </c>
       <c r="D328" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E328">
+        <f>8947+33457</f>
+        <v>42404</v>
+      </c>
+      <c r="F328">
+        <f>8947+33457</f>
+        <v>42404</v>
+      </c>
+      <c r="G328">
+        <v>1.5</v>
+      </c>
+      <c r="H328" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9166,17 +9169,17 @@
         <v>45552</v>
       </c>
       <c r="D377" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E377">
-        <v>4115</v>
+        <v>3000</v>
       </c>
       <c r="F377">
-        <v>4115</v>
+        <v>3000</v>
       </c>
       <c r="G377">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9191,17 +9194,17 @@
         <v>45552</v>
       </c>
       <c r="D378" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E378">
-        <v>3000</v>
+        <v>4115</v>
       </c>
       <c r="F378">
-        <v>3000</v>
+        <v>4115</v>
       </c>
       <c r="G378">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -9268,14 +9271,16 @@
         <v>45554</v>
       </c>
       <c r="D381" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E381">
-        <v>6454</v>
+        <f>5880</f>
+        <v>5880</v>
       </c>
       <c r="F381">
-        <v>6454</v>
+        <f>5880</f>
+        <v>5880</v>
       </c>
       <c r="G381">
         <v>2</v>
@@ -9293,16 +9298,14 @@
         <v>45554</v>
       </c>
       <c r="D382" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E382">
-        <f>5880</f>
-        <v>5880</v>
+        <v>6454</v>
       </c>
       <c r="F382">
-        <f>5880</f>
-        <v>5880</v>
+        <v>6454</v>
       </c>
       <c r="G382">
         <v>2</v>
@@ -9320,14 +9323,16 @@
         <v>45555</v>
       </c>
       <c r="D383" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E383">
-        <v>9850</v>
+        <f>6131+1552</f>
+        <v>7683</v>
       </c>
       <c r="F383">
-        <v>9850</v>
+        <f>6131+1552</f>
+        <v>7683</v>
       </c>
       <c r="G383">
         <v>2</v>
@@ -9345,16 +9350,14 @@
         <v>45555</v>
       </c>
       <c r="D384" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E384">
-        <f>6131+1552</f>
-        <v>7683</v>
+        <v>9850</v>
       </c>
       <c r="F384">
-        <f>6131+1552</f>
-        <v>7683</v>
+        <v>9850</v>
       </c>
       <c r="G384">
         <v>2</v>
@@ -9447,21 +9450,8 @@
         <v>45558</v>
       </c>
       <c r="D389" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E389">
-        <v>38000</v>
-      </c>
-      <c r="F389">
-        <f>24000+38000</f>
-        <v>62000</v>
-      </c>
-      <c r="G389">
-        <v>2</v>
-      </c>
-      <c r="H389" t="s">
-        <v>80</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9476,8 +9466,21 @@
         <v>45558</v>
       </c>
       <c r="D390" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E390">
+        <v>38000</v>
+      </c>
+      <c r="F390">
+        <f>24000+38000</f>
+        <v>62000</v>
+      </c>
+      <c r="G390">
+        <v>2</v>
+      </c>
+      <c r="H390" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9518,17 +9521,17 @@
         <v>45552</v>
       </c>
       <c r="D392" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E392">
-        <v>3624</v>
+        <v>3000</v>
       </c>
       <c r="F392">
-        <v>3624</v>
+        <v>3000</v>
       </c>
       <c r="G392">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9543,17 +9546,17 @@
         <v>45552</v>
       </c>
       <c r="D393" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E393">
-        <v>3000</v>
+        <v>3624</v>
       </c>
       <c r="F393">
-        <v>3000</v>
+        <v>3624</v>
       </c>
       <c r="G393">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9568,16 +9571,16 @@
         <v>45553</v>
       </c>
       <c r="D394" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E394">
-        <f>3979+5784</f>
-        <v>9763</v>
+        <f>1992+4737</f>
+        <v>6729</v>
       </c>
       <c r="F394">
-        <f>3979+5784</f>
-        <v>9763</v>
+        <f>1992+4737</f>
+        <v>6729</v>
       </c>
       <c r="G394">
         <v>3</v>
@@ -9595,16 +9598,16 @@
         <v>45553</v>
       </c>
       <c r="D395" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E395">
-        <f>1992+4737</f>
-        <v>6729</v>
+        <f>3979+5784</f>
+        <v>9763</v>
       </c>
       <c r="F395">
-        <f>1992+4737</f>
-        <v>6729</v>
+        <f>3979+5784</f>
+        <v>9763</v>
       </c>
       <c r="G395">
         <v>3</v>
@@ -9622,22 +9625,22 @@
         <v>45554</v>
       </c>
       <c r="D396" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E396">
-        <f>4827+3869</f>
-        <v>8696</v>
+        <f>13279+9184</f>
+        <v>22463</v>
       </c>
       <c r="F396">
-        <f>E396+11000+24000</f>
-        <v>43696</v>
+        <f>13279+9184</f>
+        <v>22463</v>
       </c>
       <c r="G396">
         <v>3</v>
       </c>
       <c r="H396" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9652,22 +9655,22 @@
         <v>45554</v>
       </c>
       <c r="D397" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E397">
-        <f>13279+9184</f>
-        <v>22463</v>
+        <f>4827+3869</f>
+        <v>8696</v>
       </c>
       <c r="F397">
-        <f>13279+9184</f>
-        <v>22463</v>
+        <f>E397+11000+24000</f>
+        <v>43696</v>
       </c>
       <c r="G397">
         <v>3</v>
       </c>
       <c r="H397" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9682,19 +9685,22 @@
         <v>45555</v>
       </c>
       <c r="D398" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E398">
-        <f>3030+18494</f>
-        <v>21524</v>
+        <f>3750+25269-5000-5000</f>
+        <v>19019</v>
       </c>
       <c r="F398">
-        <f t="shared" ref="F398:F403" si="3">E398+11000+24000+10000</f>
-        <v>66524</v>
+        <f>E398+11000+24000+10000</f>
+        <v>64019</v>
       </c>
       <c r="G398">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H398" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9709,22 +9715,19 @@
         <v>45555</v>
       </c>
       <c r="D399" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E399">
-        <f>3750+25269-5000-5000</f>
-        <v>19019</v>
+        <f>3030+18494</f>
+        <v>21524</v>
       </c>
       <c r="F399">
-        <f t="shared" si="3"/>
-        <v>64019</v>
+        <f>E399+11000+24000+10000</f>
+        <v>66524</v>
       </c>
       <c r="G399">
-        <v>3</v>
-      </c>
-      <c r="H399" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9739,18 +9742,19 @@
         <v>45556</v>
       </c>
       <c r="D400" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E400">
-        <v>28179</v>
+        <f>6518+19144</f>
+        <v>25662</v>
       </c>
       <c r="F400">
-        <f t="shared" si="3"/>
-        <v>73179</v>
+        <f>E400+11000+24000+10000</f>
+        <v>70662</v>
       </c>
       <c r="G400">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9765,19 +9769,18 @@
         <v>45556</v>
       </c>
       <c r="D401" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E401">
-        <f>6518+19144</f>
-        <v>25662</v>
+        <v>28179</v>
       </c>
       <c r="F401">
-        <f t="shared" si="3"/>
-        <v>70662</v>
+        <f>E401+11000+24000+10000</f>
+        <v>73179</v>
       </c>
       <c r="G401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9799,7 +9802,7 @@
         <v>169832</v>
       </c>
       <c r="F402">
-        <f t="shared" si="3"/>
+        <f>E402+11000+24000+10000</f>
         <v>214832</v>
       </c>
       <c r="G402">
@@ -9828,7 +9831,7 @@
         <v>131800</v>
       </c>
       <c r="F403">
-        <f t="shared" si="3"/>
+        <f>E403+11000+24000+10000</f>
         <v>176800</v>
       </c>
       <c r="G403">
@@ -9847,21 +9850,19 @@
         <v>45558</v>
       </c>
       <c r="D404" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E404">
-        <v>9200</v>
+        <f>147000</f>
+        <v>147000</v>
       </c>
       <c r="F404">
-        <f>E404+11000+24000+10000+180000</f>
-        <v>234200</v>
+        <f>E404+11000+24000+10000</f>
+        <v>192000</v>
       </c>
       <c r="G404">
         <v>3</v>
-      </c>
-      <c r="H404" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9876,19 +9877,21 @@
         <v>45558</v>
       </c>
       <c r="D405" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E405">
-        <f>147000</f>
-        <v>147000</v>
+        <v>9200</v>
       </c>
       <c r="F405">
-        <f>E405+11000+24000+10000</f>
-        <v>192000</v>
+        <f>E405+11000+24000+10000+180000</f>
+        <v>234200</v>
       </c>
       <c r="G405">
         <v>3</v>
+      </c>
+      <c r="H405" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10712,16 +10715,16 @@
         <v>45553</v>
       </c>
       <c r="D454" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E454">
-        <f>724+11111</f>
-        <v>11835</v>
+        <f>724+7151</f>
+        <v>7875</v>
       </c>
       <c r="F454">
-        <f>724+11111</f>
-        <v>11835</v>
+        <f>E454</f>
+        <v>7875</v>
       </c>
       <c r="G454" s="1">
         <v>3</v>
@@ -10739,16 +10742,16 @@
         <v>45553</v>
       </c>
       <c r="D455" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E455">
-        <f>724+7151</f>
-        <v>7875</v>
+        <f>724+11111</f>
+        <v>11835</v>
       </c>
       <c r="F455">
-        <f>E455</f>
-        <v>7875</v>
+        <f>724+11111</f>
+        <v>11835</v>
       </c>
       <c r="G455" s="1">
         <v>3</v>
@@ -10766,16 +10769,16 @@
         <v>45554</v>
       </c>
       <c r="D456" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E456">
-        <f>681+13730</f>
-        <v>14411</v>
+        <f>774+12556</f>
+        <v>13330</v>
       </c>
       <c r="F456">
-        <f>681+13730</f>
-        <v>14411</v>
+        <f>774+12556</f>
+        <v>13330</v>
       </c>
       <c r="G456" s="1">
         <v>3</v>
@@ -10793,16 +10796,16 @@
         <v>45554</v>
       </c>
       <c r="D457" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E457">
-        <f>774+12556</f>
-        <v>13330</v>
+        <f>681+13730</f>
+        <v>14411</v>
       </c>
       <c r="F457">
-        <f>774+12556</f>
-        <v>13330</v>
+        <f>681+13730</f>
+        <v>14411</v>
       </c>
       <c r="G457" s="1">
         <v>3</v>
@@ -10820,16 +10823,16 @@
         <v>45555</v>
       </c>
       <c r="D458" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E458">
-        <f>23000</f>
-        <v>23000</v>
+        <f>676+17185</f>
+        <v>17861</v>
       </c>
       <c r="F458">
-        <f>23000</f>
-        <v>23000</v>
+        <f>676+17185</f>
+        <v>17861</v>
       </c>
       <c r="G458" s="1">
         <v>3</v>
@@ -10847,16 +10850,16 @@
         <v>45555</v>
       </c>
       <c r="D459" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E459">
-        <f>676+17185</f>
-        <v>17861</v>
+        <f>23000</f>
+        <v>23000</v>
       </c>
       <c r="F459">
-        <f>676+17185</f>
-        <v>17861</v>
+        <f>23000</f>
+        <v>23000</v>
       </c>
       <c r="G459" s="1">
         <v>3</v>
@@ -10874,19 +10877,22 @@
         <v>45556</v>
       </c>
       <c r="D460" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E460">
-        <f>605+14885</f>
-        <v>15490</v>
+        <f>678+6829</f>
+        <v>7507</v>
       </c>
       <c r="F460">
-        <f>605+14885</f>
-        <v>15490</v>
+        <f>678+6829</f>
+        <v>7507</v>
       </c>
       <c r="G460" s="1">
         <v>3</v>
+      </c>
+      <c r="H460" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10901,22 +10907,19 @@
         <v>45556</v>
       </c>
       <c r="D461" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E461">
-        <f>678+6829</f>
-        <v>7507</v>
+        <f>605+14885</f>
+        <v>15490</v>
       </c>
       <c r="F461">
-        <f>678+6829</f>
-        <v>7507</v>
+        <f>605+14885</f>
+        <v>15490</v>
       </c>
       <c r="G461" s="1">
         <v>3</v>
-      </c>
-      <c r="H461" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10931,16 +10934,16 @@
         <v>45557</v>
       </c>
       <c r="D462" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E462">
-        <f>29500</f>
-        <v>29500</v>
+        <f>590+21394</f>
+        <v>21984</v>
       </c>
       <c r="F462">
-        <f>29500</f>
-        <v>29500</v>
+        <f>590+21394</f>
+        <v>21984</v>
       </c>
       <c r="G462" s="1">
         <v>3</v>
@@ -10958,16 +10961,16 @@
         <v>45557</v>
       </c>
       <c r="D463" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E463">
-        <f>590+21394</f>
-        <v>21984</v>
+        <f>29500</f>
+        <v>29500</v>
       </c>
       <c r="F463">
-        <f>590+21394</f>
-        <v>21984</v>
+        <f>29500</f>
+        <v>29500</v>
       </c>
       <c r="G463" s="1">
         <v>3</v>
@@ -11068,6 +11071,15 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E467">
+        <v>3000</v>
+      </c>
+      <c r="F467">
+        <v>3000</v>
+      </c>
+      <c r="G467" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
@@ -11084,6 +11096,16 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E468">
+        <v>4500</v>
+      </c>
+      <c r="F468">
+        <f>E468</f>
+        <v>4500</v>
+      </c>
+      <c r="G468" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="469" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
@@ -11100,6 +11122,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E469">
+        <v>7500</v>
+      </c>
+      <c r="F469">
+        <f>E469</f>
+        <v>7500</v>
+      </c>
+      <c r="G469" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="470" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
@@ -11116,6 +11148,16 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E470">
+        <v>10000</v>
+      </c>
+      <c r="F470">
+        <f>E470</f>
+        <v>10000</v>
+      </c>
+      <c r="G470" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="471" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
@@ -11132,6 +11174,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E471">
+        <v>15250</v>
+      </c>
+      <c r="F471">
+        <f>E471</f>
+        <v>15250</v>
+      </c>
+      <c r="G471" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="472" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -11148,6 +11200,16 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E472">
+        <v>17000</v>
+      </c>
+      <c r="F472">
+        <f>E472</f>
+        <v>17000</v>
+      </c>
+      <c r="G472" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="473" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
@@ -11164,6 +11226,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E473">
+        <v>20000</v>
+      </c>
+      <c r="F473">
+        <f>E473</f>
+        <v>20000</v>
+      </c>
+      <c r="G473" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="474" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
@@ -11180,6 +11252,19 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E474">
+        <v>12250</v>
+      </c>
+      <c r="F474">
+        <f>E474+10000</f>
+        <v>22250</v>
+      </c>
+      <c r="G474" s="1">
+        <v>3</v>
+      </c>
+      <c r="H474" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="475" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
@@ -11196,6 +11281,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E475">
+        <v>20250</v>
+      </c>
+      <c r="F475">
+        <f>E475+10000</f>
+        <v>30250</v>
+      </c>
+      <c r="G475" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="476" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
@@ -11212,6 +11307,19 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E476">
+        <v>8750</v>
+      </c>
+      <c r="F476">
+        <f>E476+10000+11000</f>
+        <v>29750</v>
+      </c>
+      <c r="G476" s="1">
+        <v>3</v>
+      </c>
+      <c r="H476" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="477" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
@@ -11228,6 +11336,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E477">
+        <v>11500</v>
+      </c>
+      <c r="F477">
+        <f>E477+10000+11000</f>
+        <v>32500</v>
+      </c>
+      <c r="G477" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="478" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
@@ -11244,6 +11362,16 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E478">
+        <v>93200</v>
+      </c>
+      <c r="F478">
+        <f>E478+10000+11000</f>
+        <v>114200</v>
+      </c>
+      <c r="G478" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
@@ -11260,6 +11388,16 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E479">
+        <v>141000</v>
+      </c>
+      <c r="F479">
+        <f>E479+10000+11000</f>
+        <v>162000</v>
+      </c>
+      <c r="G479" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="480" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
@@ -11276,6 +11414,16 @@
         <f>TIME(22,0,0)</f>
         <v>0.91666666666666663</v>
       </c>
+      <c r="E480">
+        <v>130000</v>
+      </c>
+      <c r="F480">
+        <f>E480+10000+11000</f>
+        <v>151000</v>
+      </c>
+      <c r="G480" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="481" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
@@ -11292,6 +11440,19 @@
         <f>TIME(19,0,0)</f>
         <v>0.79166666666666663</v>
       </c>
+      <c r="E481">
+        <v>77000</v>
+      </c>
+      <c r="F481">
+        <f>E481+10000+11000+52000</f>
+        <v>150000</v>
+      </c>
+      <c r="G481" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H481" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="482" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
@@ -11355,16 +11516,16 @@
         <v>45553</v>
       </c>
       <c r="D484" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E484">
-        <f>708+8640</f>
-        <v>9348</v>
+        <f>827+2193</f>
+        <v>3020</v>
       </c>
       <c r="F484">
-        <f>708+8640</f>
-        <v>9348</v>
+        <f>827+2193</f>
+        <v>3020</v>
       </c>
       <c r="G484">
         <v>3</v>
@@ -11382,16 +11543,16 @@
         <v>45553</v>
       </c>
       <c r="D485" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E485">
-        <f>827+2193</f>
-        <v>3020</v>
+        <f>708+8640</f>
+        <v>9348</v>
       </c>
       <c r="F485">
-        <f>827+2193</f>
-        <v>3020</v>
+        <f>708+8640</f>
+        <v>9348</v>
       </c>
       <c r="G485">
         <v>3</v>
@@ -11409,17 +11570,17 @@
         <v>45554</v>
       </c>
       <c r="D486" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E486">
-        <v>12400</v>
+        <v>11268</v>
       </c>
       <c r="F486">
-        <v>12400</v>
+        <v>11268</v>
       </c>
       <c r="G486">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11434,17 +11595,17 @@
         <v>45554</v>
       </c>
       <c r="D487" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E487">
-        <v>11268</v>
+        <v>12400</v>
       </c>
       <c r="F487">
-        <v>11268</v>
+        <v>12400</v>
       </c>
       <c r="G487">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11459,21 +11620,17 @@
         <v>45555</v>
       </c>
       <c r="D488" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E488">
-        <v>8740</v>
+        <v>13000</v>
       </c>
       <c r="F488">
-        <f>5500+E488</f>
-        <v>14240</v>
+        <v>13000</v>
       </c>
       <c r="G488">
-        <v>3</v>
-      </c>
-      <c r="H488" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11488,17 +11645,21 @@
         <v>45555</v>
       </c>
       <c r="D489" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E489">
-        <v>13000</v>
+        <v>8740</v>
       </c>
       <c r="F489">
-        <v>13000</v>
+        <f>5500+E489</f>
+        <v>14240</v>
       </c>
       <c r="G489">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H489" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="490" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11513,21 +11674,19 @@
         <v>45556</v>
       </c>
       <c r="D490" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E490">
-        <v>28500</v>
+        <f>26668</f>
+        <v>26668</v>
       </c>
       <c r="F490">
-        <f>5500+24000+E490</f>
-        <v>58000</v>
+        <f>5500+E490</f>
+        <v>32168</v>
       </c>
       <c r="G490">
         <v>3</v>
-      </c>
-      <c r="H490" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="491" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11542,19 +11701,21 @@
         <v>45556</v>
       </c>
       <c r="D491" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E491">
-        <f>26668</f>
-        <v>26668</v>
+        <v>28500</v>
       </c>
       <c r="F491">
-        <f>5500+E491</f>
-        <v>32168</v>
+        <f>5500+24000+E491</f>
+        <v>58000</v>
       </c>
       <c r="G491">
         <v>3</v>
+      </c>
+      <c r="H491" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="492" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11621,21 +11782,18 @@
         <v>45558</v>
       </c>
       <c r="D494" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E494">
-        <v>5500</v>
+        <v>41000</v>
       </c>
       <c r="F494">
-        <f>5500+24000+E494+55000+5000</f>
-        <v>95000</v>
+        <f>5500+24000+E494</f>
+        <v>70500</v>
       </c>
       <c r="G494">
         <v>3</v>
-      </c>
-      <c r="H494" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="495" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11650,18 +11808,21 @@
         <v>45558</v>
       </c>
       <c r="D495" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E495">
-        <v>41000</v>
+        <v>5500</v>
       </c>
       <c r="F495">
-        <f>5500+24000+E495</f>
-        <v>70500</v>
+        <f>5500+24000+E495+55000+5000</f>
+        <v>95000</v>
       </c>
       <c r="G495">
         <v>3</v>
+      </c>
+      <c r="H495" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="496" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12186,17 +12347,17 @@
         <v>45552</v>
       </c>
       <c r="D527" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E527">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="F527">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="G527">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -12211,17 +12372,17 @@
         <v>45552</v>
       </c>
       <c r="D528" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E528">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F528">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12236,14 +12397,16 @@
         <v>45553</v>
       </c>
       <c r="D529" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E529">
-        <v>10760</v>
+        <f>2848+1606</f>
+        <v>4454</v>
       </c>
       <c r="F529">
-        <v>10760</v>
+        <f>2848+1606</f>
+        <v>4454</v>
       </c>
       <c r="G529">
         <v>3</v>
@@ -12261,16 +12424,14 @@
         <v>45553</v>
       </c>
       <c r="D530" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E530">
-        <f>2848+1606</f>
-        <v>4454</v>
+        <v>10760</v>
       </c>
       <c r="F530">
-        <f>2848+1606</f>
-        <v>4454</v>
+        <v>10760</v>
       </c>
       <c r="G530">
         <v>3</v>
@@ -12288,18 +12449,21 @@
         <v>45554</v>
       </c>
       <c r="D531" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E531">
-        <v>4865</v>
+        <v>2750</v>
       </c>
       <c r="F531">
-        <f>4865+5500</f>
-        <v>10365</v>
+        <f>2750+5500</f>
+        <v>8250</v>
       </c>
       <c r="G531">
         <v>3</v>
+      </c>
+      <c r="H531" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="532" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12314,21 +12478,18 @@
         <v>45554</v>
       </c>
       <c r="D532" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E532">
-        <v>2750</v>
+        <v>4865</v>
       </c>
       <c r="F532">
-        <f>2750+5500</f>
-        <v>8250</v>
+        <f>4865+5500</f>
+        <v>10365</v>
       </c>
       <c r="G532">
         <v>3</v>
-      </c>
-      <c r="H532" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="533" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12343,15 +12504,15 @@
         <v>45555</v>
       </c>
       <c r="D533" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E533">
-        <v>38000</v>
+        <v>17730</v>
       </c>
       <c r="F533">
-        <f>38000+5500</f>
-        <v>43500</v>
+        <f>17730+5500</f>
+        <v>23230</v>
       </c>
       <c r="G533">
         <v>3</v>
@@ -12369,15 +12530,15 @@
         <v>45555</v>
       </c>
       <c r="D534" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E534">
-        <v>17730</v>
+        <v>38000</v>
       </c>
       <c r="F534">
-        <f>17730+5500</f>
-        <v>23230</v>
+        <f>38000+5500</f>
+        <v>43500</v>
       </c>
       <c r="G534">
         <v>3</v>
@@ -12395,16 +12556,15 @@
         <v>45556</v>
       </c>
       <c r="D535" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E535">
-        <f>7793+85994</f>
-        <v>93787</v>
+        <v>60000</v>
       </c>
       <c r="F535">
-        <f>E535+5500</f>
-        <v>99287</v>
+        <f>65500</f>
+        <v>65500</v>
       </c>
       <c r="G535">
         <v>3</v>
@@ -12422,15 +12582,16 @@
         <v>45556</v>
       </c>
       <c r="D536" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E536">
-        <v>60000</v>
+        <f>7793+85994</f>
+        <v>93787</v>
       </c>
       <c r="F536">
-        <f>65500</f>
-        <v>65500</v>
+        <f>E536+5500</f>
+        <v>99287</v>
       </c>
       <c r="G536">
         <v>3</v>
@@ -12448,18 +12609,15 @@
         <v>45557</v>
       </c>
       <c r="D537" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E537">
-        <v>65200</v>
+        <v>96415</v>
       </c>
       <c r="F537">
-        <f>E537+5500+55000</f>
-        <v>125700</v>
-      </c>
-      <c r="H537" t="s">
-        <v>90</v>
+        <f>E537+5500</f>
+        <v>101915</v>
       </c>
     </row>
     <row r="538" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12474,15 +12632,18 @@
         <v>45557</v>
       </c>
       <c r="D538" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E538">
-        <v>96415</v>
+        <v>65200</v>
       </c>
       <c r="F538">
-        <f>E538+5500</f>
-        <v>101915</v>
+        <f>E538+5500+55000</f>
+        <v>125700</v>
+      </c>
+      <c r="H538" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="539" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12497,18 +12658,15 @@
         <v>45558</v>
       </c>
       <c r="D539" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E539">
-        <v>142000</v>
+        <v>85000</v>
       </c>
       <c r="F539">
         <f>E539+5500+55000</f>
-        <v>202500</v>
-      </c>
-      <c r="G539">
-        <v>3</v>
+        <v>145500</v>
       </c>
     </row>
     <row r="540" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12523,15 +12681,18 @@
         <v>45558</v>
       </c>
       <c r="D540" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E540">
-        <v>85000</v>
+        <v>142000</v>
       </c>
       <c r="F540">
         <f>E540+5500+55000</f>
-        <v>145500</v>
+        <v>202500</v>
+      </c>
+      <c r="G540">
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12819,19 +12980,17 @@
         <v>45552</v>
       </c>
       <c r="D557" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E557">
-        <f>14678+15933</f>
-        <v>30611</v>
+        <v>3000</v>
       </c>
       <c r="F557">
-        <f>14678+15933</f>
-        <v>30611</v>
+        <v>3000</v>
       </c>
       <c r="G557">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12846,17 +13005,19 @@
         <v>45552</v>
       </c>
       <c r="D558" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E558">
-        <v>3000</v>
+        <f>14678+15933</f>
+        <v>30611</v>
       </c>
       <c r="F558">
-        <v>3000</v>
+        <f>14678+15933</f>
+        <v>30611</v>
       </c>
       <c r="G558">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12871,19 +13032,20 @@
         <v>45553</v>
       </c>
       <c r="D559" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E559">
-        <f>19700+442</f>
-        <v>20142</v>
+        <v>10096</v>
       </c>
       <c r="F559">
-        <f>19700+442</f>
-        <v>20142</v>
+        <v>10096</v>
       </c>
       <c r="G559">
         <v>3</v>
+      </c>
+      <c r="H559" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="560" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12898,20 +13060,19 @@
         <v>45553</v>
       </c>
       <c r="D560" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E560">
-        <v>10096</v>
+        <f>19700+442</f>
+        <v>20142</v>
       </c>
       <c r="F560">
-        <v>10096</v>
+        <f>19700+442</f>
+        <v>20142</v>
       </c>
       <c r="G560">
         <v>3</v>
-      </c>
-      <c r="H560" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="561" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12926,19 +13087,22 @@
         <v>45554</v>
       </c>
       <c r="D561" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E561">
-        <f>3476+25305</f>
-        <v>28781</v>
+        <f>396+7120</f>
+        <v>7516</v>
       </c>
       <c r="F561">
-        <f>3476+25305</f>
-        <v>28781</v>
+        <f>396+7120</f>
+        <v>7516</v>
       </c>
       <c r="G561">
         <v>3</v>
+      </c>
+      <c r="H561" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="562" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12953,22 +13117,19 @@
         <v>45554</v>
       </c>
       <c r="D562" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E562">
-        <f>396+7120</f>
-        <v>7516</v>
+        <f>3476+25305</f>
+        <v>28781</v>
       </c>
       <c r="F562">
-        <f>396+7120</f>
-        <v>7516</v>
+        <f>3476+25305</f>
+        <v>28781</v>
       </c>
       <c r="G562">
         <v>3</v>
-      </c>
-      <c r="H562" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="563" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12983,14 +13144,16 @@
         <v>45555</v>
       </c>
       <c r="D563" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E563">
-        <v>138699</v>
+        <f>12952+27113</f>
+        <v>40065</v>
       </c>
       <c r="F563">
-        <v>138699</v>
+        <f>12952+27113</f>
+        <v>40065</v>
       </c>
       <c r="G563">
         <v>3</v>
@@ -13008,16 +13171,14 @@
         <v>45555</v>
       </c>
       <c r="D564" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E564">
-        <f>12952+27113</f>
-        <v>40065</v>
+        <v>138699</v>
       </c>
       <c r="F564">
-        <f>12952+27113</f>
-        <v>40065</v>
+        <v>138699</v>
       </c>
       <c r="G564">
         <v>3</v>
@@ -13035,18 +13196,21 @@
         <v>45556</v>
       </c>
       <c r="D565" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E565">
-        <v>19750</v>
+        <v>8550</v>
       </c>
       <c r="F565">
-        <f>E565+168000</f>
-        <v>187750</v>
+        <f>8550+168000</f>
+        <v>176550</v>
       </c>
       <c r="G565">
         <v>3</v>
+      </c>
+      <c r="H565" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="566" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13061,21 +13225,18 @@
         <v>45556</v>
       </c>
       <c r="D566" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E566">
-        <v>8550</v>
+        <v>19750</v>
       </c>
       <c r="F566">
-        <f>8550+168000</f>
-        <v>176550</v>
+        <f>E566+168000</f>
+        <v>187750</v>
       </c>
       <c r="G566">
         <v>3</v>
-      </c>
-      <c r="H566" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="567" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13090,16 +13251,16 @@
         <v>45557</v>
       </c>
       <c r="D567" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E567">
-        <f>35840+5268</f>
-        <v>41108</v>
+        <f>13524+6241</f>
+        <v>19765</v>
       </c>
       <c r="F567">
         <f>168000+E567</f>
-        <v>209108</v>
+        <v>187765</v>
       </c>
       <c r="G567">
         <v>3</v>
@@ -13117,16 +13278,16 @@
         <v>45557</v>
       </c>
       <c r="D568" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E568">
-        <f>13524+6241</f>
-        <v>19765</v>
+        <f>35840+5268</f>
+        <v>41108</v>
       </c>
       <c r="F568">
         <f>168000+E568</f>
-        <v>187765</v>
+        <v>209108</v>
       </c>
       <c r="G568">
         <v>3</v>
@@ -13226,17 +13387,17 @@
         <v>45552</v>
       </c>
       <c r="D572" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E572">
-        <v>16564</v>
+        <v>3000</v>
       </c>
       <c r="F572">
-        <v>16564</v>
+        <v>3000</v>
       </c>
       <c r="G572">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13251,17 +13412,17 @@
         <v>45552</v>
       </c>
       <c r="D573" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E573">
-        <v>3000</v>
+        <v>16564</v>
       </c>
       <c r="F573">
-        <v>3000</v>
+        <v>16564</v>
       </c>
       <c r="G573">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13276,16 +13437,16 @@
         <v>45553</v>
       </c>
       <c r="D574" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E574">
-        <f>1180+29282</f>
-        <v>30462</v>
+        <f>1200+23764</f>
+        <v>24964</v>
       </c>
       <c r="F574">
-        <f>1180+29282</f>
-        <v>30462</v>
+        <f>1200+23764</f>
+        <v>24964</v>
       </c>
       <c r="G574">
         <v>3</v>
@@ -13303,16 +13464,16 @@
         <v>45553</v>
       </c>
       <c r="D575" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E575">
-        <f>1200+23764</f>
-        <v>24964</v>
+        <f>1180+29282</f>
+        <v>30462</v>
       </c>
       <c r="F575">
-        <f>1200+23764</f>
-        <v>24964</v>
+        <f>1180+29282</f>
+        <v>30462</v>
       </c>
       <c r="G575">
         <v>3</v>
@@ -13330,14 +13491,14 @@
         <v>45554</v>
       </c>
       <c r="D576" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E576">
-        <v>47147</v>
+        <v>35188</v>
       </c>
       <c r="F576">
-        <v>47147</v>
+        <v>35188</v>
       </c>
       <c r="G576">
         <v>3</v>
@@ -13355,14 +13516,14 @@
         <v>45554</v>
       </c>
       <c r="D577" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E577">
-        <v>35188</v>
+        <v>47147</v>
       </c>
       <c r="F577">
-        <v>35188</v>
+        <v>47147</v>
       </c>
       <c r="G577">
         <v>3</v>
@@ -13434,15 +13595,15 @@
         <v>45556</v>
       </c>
       <c r="D580" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E580">
-        <v>56500</v>
+        <v>45220</v>
       </c>
       <c r="F580">
-        <f>56500+26000</f>
-        <v>82500</v>
+        <f>E580+24000</f>
+        <v>69220</v>
       </c>
       <c r="G580">
         <v>3</v>
@@ -13460,15 +13621,15 @@
         <v>45556</v>
       </c>
       <c r="D581" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E581">
-        <v>45220</v>
+        <v>56500</v>
       </c>
       <c r="F581">
-        <f>E581+24000</f>
-        <v>69220</v>
+        <f>56500+26000</f>
+        <v>82500</v>
       </c>
       <c r="G581">
         <v>3</v>
@@ -13486,16 +13647,16 @@
         <v>45557</v>
       </c>
       <c r="D582" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E582">
-        <f>78980+1903</f>
-        <v>80883</v>
+        <f>64230+1773</f>
+        <v>66003</v>
       </c>
       <c r="F582">
         <f>E582+24000</f>
-        <v>104883</v>
+        <v>90003</v>
       </c>
       <c r="G582">
         <v>3</v>
@@ -13513,16 +13674,16 @@
         <v>45557</v>
       </c>
       <c r="D583" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E583">
-        <f>64230+1773</f>
-        <v>66003</v>
+        <f>78980+1903</f>
+        <v>80883</v>
       </c>
       <c r="F583">
         <f>E583+24000</f>
-        <v>90003</v>
+        <v>104883</v>
       </c>
       <c r="G583">
         <v>3</v>
@@ -14585,17 +14746,17 @@
         <v>45552</v>
       </c>
       <c r="D647" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E647">
-        <v>3369</v>
+        <v>3000</v>
       </c>
       <c r="F647">
-        <v>3369</v>
+        <v>3000</v>
       </c>
       <c r="G647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14610,17 +14771,17 @@
         <v>45552</v>
       </c>
       <c r="D648" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E648">
-        <v>3000</v>
+        <v>3369</v>
       </c>
       <c r="F648">
-        <v>3000</v>
+        <v>3369</v>
       </c>
       <c r="G648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14635,17 +14796,17 @@
         <v>45553</v>
       </c>
       <c r="D649" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E649">
-        <v>7019</v>
+        <v>3969</v>
       </c>
       <c r="F649">
-        <v>7019</v>
+        <v>3969</v>
       </c>
       <c r="G649">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14660,17 +14821,17 @@
         <v>45553</v>
       </c>
       <c r="D650" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E650">
-        <v>3969</v>
+        <v>7019</v>
       </c>
       <c r="F650">
-        <v>3969</v>
+        <v>7019</v>
       </c>
       <c r="G650">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14685,19 +14846,19 @@
         <v>45554</v>
       </c>
       <c r="D651" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E651">
-        <f>1100+12839</f>
-        <v>13939</v>
+        <f>1185+10279</f>
+        <v>11464</v>
       </c>
       <c r="F651">
-        <f>1100+12839</f>
-        <v>13939</v>
+        <f>1185+10279</f>
+        <v>11464</v>
       </c>
       <c r="G651">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14712,19 +14873,19 @@
         <v>45554</v>
       </c>
       <c r="D652" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E652">
-        <f>1185+10279</f>
-        <v>11464</v>
+        <f>1100+12839</f>
+        <v>13939</v>
       </c>
       <c r="F652">
-        <f>1185+10279</f>
-        <v>11464</v>
+        <f>1100+12839</f>
+        <v>13939</v>
       </c>
       <c r="G652">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14739,22 +14900,19 @@
         <v>45555</v>
       </c>
       <c r="D653" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E653">
-        <f>928+10489</f>
-        <v>11417</v>
+        <f>1100+12839</f>
+        <v>13939</v>
       </c>
       <c r="F653">
-        <f>E653+5500</f>
-        <v>16917</v>
+        <f>1100+12839</f>
+        <v>13939</v>
       </c>
       <c r="G653">
         <v>2</v>
-      </c>
-      <c r="H653" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="654" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14769,19 +14927,22 @@
         <v>45555</v>
       </c>
       <c r="D654" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E654">
-        <f>1100+12839</f>
-        <v>13939</v>
+        <f>928+10489</f>
+        <v>11417</v>
       </c>
       <c r="F654">
-        <f>1100+12839</f>
-        <v>13939</v>
+        <f>E654+5500</f>
+        <v>16917</v>
       </c>
       <c r="G654">
         <v>2</v>
+      </c>
+      <c r="H654" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="655" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14796,19 +14957,19 @@
         <v>45556</v>
       </c>
       <c r="D655" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E655">
-        <f>10934+720</f>
-        <v>11654</v>
+        <f>10689+838</f>
+        <v>11527</v>
       </c>
       <c r="F655">
-        <f t="shared" ref="F655:F660" si="4">E655+5500</f>
-        <v>17154</v>
+        <f>E655+5500</f>
+        <v>17027</v>
       </c>
       <c r="G655">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14823,19 +14984,19 @@
         <v>45556</v>
       </c>
       <c r="D656" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E656">
-        <f>10689+838</f>
-        <v>11527</v>
+        <f>10934+720</f>
+        <v>11654</v>
       </c>
       <c r="F656">
-        <f t="shared" si="4"/>
-        <v>17027</v>
+        <f>E656+5500</f>
+        <v>17154</v>
       </c>
       <c r="G656">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -14850,16 +15011,16 @@
         <v>45557</v>
       </c>
       <c r="D657" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E657">
-        <f>25000</f>
-        <v>25000</v>
+        <f>18100</f>
+        <v>18100</v>
       </c>
       <c r="F657">
-        <f t="shared" si="4"/>
-        <v>30500</v>
+        <f>E657+5500</f>
+        <v>23600</v>
       </c>
       <c r="G657">
         <v>3</v>
@@ -14877,16 +15038,16 @@
         <v>45557</v>
       </c>
       <c r="D658" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E658">
-        <f>18100</f>
-        <v>18100</v>
+        <f>25000</f>
+        <v>25000</v>
       </c>
       <c r="F658">
-        <f t="shared" si="4"/>
-        <v>23600</v>
+        <f>E658+5500</f>
+        <v>30500</v>
       </c>
       <c r="G658">
         <v>3</v>
@@ -14911,7 +15072,7 @@
         <v>30300</v>
       </c>
       <c r="F659">
-        <f t="shared" si="4"/>
+        <f>E659+5500</f>
         <v>35800</v>
       </c>
       <c r="G659">
@@ -14937,7 +15098,7 @@
         <v>29600</v>
       </c>
       <c r="F660">
-        <f t="shared" si="4"/>
+        <f>E660+5500</f>
         <v>35100</v>
       </c>
       <c r="G660">
@@ -14985,18 +15146,21 @@
         <v>45552</v>
       </c>
       <c r="D662" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E662">
-        <v>4040</v>
-      </c>
-      <c r="F662">
-        <v>4040</v>
-      </c>
-      <c r="G662">
-        <v>3</v>
-      </c>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E662" s="1">
+        <f>3600</f>
+        <v>3600</v>
+      </c>
+      <c r="F662" s="1">
+        <f>3600</f>
+        <v>3600</v>
+      </c>
+      <c r="G662" s="1">
+        <v>0</v>
+      </c>
+      <c r="H662" s="1"/>
     </row>
     <row r="663" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
@@ -15010,21 +15174,18 @@
         <v>45552</v>
       </c>
       <c r="D663" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E663" s="1">
-        <f>3600</f>
-        <v>3600</v>
-      </c>
-      <c r="F663" s="1">
-        <f>3600</f>
-        <v>3600</v>
-      </c>
-      <c r="G663" s="1">
-        <v>0</v>
-      </c>
-      <c r="H663" s="1"/>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E663">
+        <v>4040</v>
+      </c>
+      <c r="F663">
+        <v>4040</v>
+      </c>
+      <c r="G663">
+        <v>3</v>
+      </c>
     </row>
     <row r="664" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
@@ -15038,16 +15199,16 @@
         <v>45553</v>
       </c>
       <c r="D664" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E664">
-        <f>789+7680</f>
-        <v>8469</v>
+        <f>3500+868</f>
+        <v>4368</v>
       </c>
       <c r="F664">
-        <f>789+7680</f>
-        <v>8469</v>
+        <f>3500+868</f>
+        <v>4368</v>
       </c>
       <c r="G664">
         <v>3</v>
@@ -15065,16 +15226,16 @@
         <v>45553</v>
       </c>
       <c r="D665" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E665">
-        <f>3500+868</f>
-        <v>4368</v>
+        <f>789+7680</f>
+        <v>8469</v>
       </c>
       <c r="F665">
-        <f>3500+868</f>
-        <v>4368</v>
+        <f>789+7680</f>
+        <v>8469</v>
       </c>
       <c r="G665">
         <v>3</v>
@@ -15092,16 +15253,16 @@
         <v>45554</v>
       </c>
       <c r="D666" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E666">
-        <f>615+9445</f>
-        <v>10060</v>
+        <f>688+7955</f>
+        <v>8643</v>
       </c>
       <c r="F666">
-        <f>615+9445</f>
-        <v>10060</v>
+        <f>688+7955</f>
+        <v>8643</v>
       </c>
       <c r="G666">
         <v>3</v>
@@ -15119,16 +15280,16 @@
         <v>45554</v>
       </c>
       <c r="D667" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E667">
-        <f>688+7955</f>
-        <v>8643</v>
+        <f>615+9445</f>
+        <v>10060</v>
       </c>
       <c r="F667">
-        <f>688+7955</f>
-        <v>8643</v>
+        <f>615+9445</f>
+        <v>10060</v>
       </c>
       <c r="G667">
         <v>3</v>
@@ -15146,19 +15307,20 @@
         <v>45555</v>
       </c>
       <c r="D668" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E668">
-        <f>1663+6735</f>
-        <v>8398</v>
+        <v>1627</v>
       </c>
       <c r="F668">
-        <f>1663+6735</f>
-        <v>8398</v>
+        <v>1627</v>
       </c>
       <c r="G668">
         <v>3</v>
+      </c>
+      <c r="H668" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="669" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15173,20 +15335,19 @@
         <v>45555</v>
       </c>
       <c r="D669" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E669">
-        <v>1627</v>
+        <f>1663+6735</f>
+        <v>8398</v>
       </c>
       <c r="F669">
-        <v>1627</v>
+        <f>1663+6735</f>
+        <v>8398</v>
       </c>
       <c r="G669">
         <v>3</v>
-      </c>
-      <c r="H669" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="670" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15201,16 +15362,16 @@
         <v>45556</v>
       </c>
       <c r="D670" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E670">
-        <f>960+16466</f>
-        <v>17426</v>
+        <f>1573+3966</f>
+        <v>5539</v>
       </c>
       <c r="F670">
-        <f>960+16466</f>
-        <v>17426</v>
+        <f>1573+3966</f>
+        <v>5539</v>
       </c>
       <c r="G670">
         <v>3</v>
@@ -15228,16 +15389,16 @@
         <v>45556</v>
       </c>
       <c r="D671" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E671">
-        <f>1573+3966</f>
-        <v>5539</v>
+        <f>960+16466</f>
+        <v>17426</v>
       </c>
       <c r="F671">
-        <f>1573+3966</f>
-        <v>5539</v>
+        <f>960+16466</f>
+        <v>17426</v>
       </c>
       <c r="G671">
         <v>3</v>
@@ -15255,14 +15416,16 @@
         <v>45557</v>
       </c>
       <c r="D672" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E672">
-        <v>29500</v>
+        <f>960+19926</f>
+        <v>20886</v>
       </c>
       <c r="F672">
-        <v>29500</v>
+        <f>960+19926</f>
+        <v>20886</v>
       </c>
       <c r="G672">
         <v>3</v>
@@ -15280,16 +15443,14 @@
         <v>45557</v>
       </c>
       <c r="D673" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E673">
-        <f>960+19926</f>
-        <v>20886</v>
+        <v>29500</v>
       </c>
       <c r="F673">
-        <f>960+19926</f>
-        <v>20886</v>
+        <v>29500</v>
       </c>
       <c r="G673">
         <v>3</v>
@@ -15631,19 +15792,17 @@
         <v>45552</v>
       </c>
       <c r="D692" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E692">
-        <f>19555+816</f>
-        <v>20371</v>
+        <v>3000</v>
       </c>
       <c r="F692">
-        <f>19555+816</f>
-        <v>20371</v>
+        <v>3000</v>
       </c>
       <c r="G692">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15658,17 +15817,19 @@
         <v>45552</v>
       </c>
       <c r="D693" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E693">
-        <v>3000</v>
+        <f>19555+816</f>
+        <v>20371</v>
       </c>
       <c r="F693">
-        <v>3000</v>
+        <f>19555+816</f>
+        <v>20371</v>
       </c>
       <c r="G693">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15683,19 +15844,22 @@
         <v>45553</v>
       </c>
       <c r="D694" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E694">
-        <f>1354+4921</f>
-        <v>6275</v>
+        <f>3505+1832</f>
+        <v>5337</v>
       </c>
       <c r="F694">
-        <f>1354+4921</f>
-        <v>6275</v>
+        <f>3505+1832</f>
+        <v>5337</v>
       </c>
       <c r="G694">
         <v>3</v>
+      </c>
+      <c r="H694" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="695" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15710,22 +15874,19 @@
         <v>45553</v>
       </c>
       <c r="D695" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E695">
-        <f>3505+1832</f>
-        <v>5337</v>
+        <f>1354+4921</f>
+        <v>6275</v>
       </c>
       <c r="F695">
-        <f>3505+1832</f>
-        <v>5337</v>
+        <f>1354+4921</f>
+        <v>6275</v>
       </c>
       <c r="G695">
         <v>3</v>
-      </c>
-      <c r="H695" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="696" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15740,14 +15901,14 @@
         <v>45554</v>
       </c>
       <c r="D696" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E696">
-        <v>19969</v>
+        <v>4283</v>
       </c>
       <c r="F696">
-        <v>19969</v>
+        <v>4283</v>
       </c>
       <c r="G696">
         <v>3</v>
@@ -15765,14 +15926,14 @@
         <v>45554</v>
       </c>
       <c r="D697" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E697">
-        <v>4283</v>
+        <v>19969</v>
       </c>
       <c r="F697">
-        <v>4283</v>
+        <v>19969</v>
       </c>
       <c r="G697">
         <v>3</v>
@@ -15790,21 +15951,17 @@
         <v>45555</v>
       </c>
       <c r="D698" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E698">
-        <v>9543</v>
+        <v>28937</v>
       </c>
       <c r="F698">
-        <f>E698+29000</f>
-        <v>38543</v>
+        <v>28937</v>
       </c>
       <c r="G698">
         <v>3</v>
-      </c>
-      <c r="H698" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="699" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15819,17 +15976,21 @@
         <v>45555</v>
       </c>
       <c r="D699" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E699">
-        <v>28937</v>
+        <v>9543</v>
       </c>
       <c r="F699">
-        <v>28937</v>
+        <f>E699+29000</f>
+        <v>38543</v>
       </c>
       <c r="G699">
         <v>3</v>
+      </c>
+      <c r="H699" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="700" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -15844,15 +16005,15 @@
         <v>45556</v>
       </c>
       <c r="D700" s="2">
-        <f>TIME(22,0,0)</f>
-        <v>0.91666666666666663</v>
+        <f>TIME(19,0,0)</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E700">
-        <v>47777</v>
+        <v>38000</v>
       </c>
       <c r="F700">
         <f>E700+29000</f>
-        <v>76777</v>
+        <v>67000</v>
       </c>
       <c r="G700">
         <v>3</v>
@@ -15870,15 +16031,15 @@
         <v>45556</v>
       </c>
       <c r="D701" s="2">
-        <f>TIME(19,0,0)</f>
-        <v>0.79166666666666663</v>
+        <f>TIME(22,0,0)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E701">
-        <v>38000</v>
+        <v>47777</v>
       </c>
       <c r="F701">
         <f>E701+29000</f>
-        <v>67000</v>
+        <v>76777</v>
       </c>
       <c r="G701">
         <v>3</v>
@@ -16266,7 +16427,9 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{55B8F192-BE0A-4E1C-BEA3-167654AE46C9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H721">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="B2:B721"/>
+      <sortCondition ref="C2:C721"/>
+      <sortCondition ref="D2:D721"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
